--- a/results/exp2.xlsx
+++ b/results/exp2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Fragkiadakis\Workspace\liver-baseline-registration\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B246A9-7A2E-4251-96F1-84807C4802AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4926E9A1-BB8D-47F1-9A69-F528612F0E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="4185" windowWidth="16515" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="liver" sheetId="1" r:id="rId1"/>
-    <sheet name="tumor" sheetId="2" r:id="rId2"/>
+    <sheet name="liver.nii.gz" sheetId="1" r:id="rId1"/>
+    <sheet name="tumor.nii.gz" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -482,6 +482,235 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" activeCellId="1" sqref="D14 C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.32956999999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.78769</v>
+      </c>
+      <c r="D2">
+        <v>0.86750000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2.6280000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.83594000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.88580000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.20105999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.79144999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.88726000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.32612999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.90461000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.93025000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.78029000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.88214000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.74065999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.85975000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.33789999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.72306999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.87766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.16142999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.67135</v>
+      </c>
+      <c r="D9">
+        <v>0.84387000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.38966000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="D10">
+        <v>0.84028000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.79254999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.87685000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.67135</v>
+      </c>
+      <c r="D12">
+        <v>0.84028000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.38966000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.90461000000000003</v>
+      </c>
+      <c r="D13">
+        <v>0.93025000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.18980749999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.7836225</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.87682416666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.18980749999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.78769</v>
+      </c>
+      <c r="D15">
+        <v>0.87685000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" activeCellId="1" sqref="C14 D14"/>
     </sheetView>
@@ -489,7 +718,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -510,13 +739,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.34548000000000001</v>
+        <v>0.13816000000000001</v>
       </c>
       <c r="C2">
-        <v>0.80581999999999998</v>
+        <v>0.49797999999999998</v>
       </c>
       <c r="D2">
-        <v>0.88219000000000003</v>
+        <v>0.74748000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,13 +753,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.8979999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.84084000000000003</v>
+        <v>0.86614999999999998</v>
       </c>
       <c r="D3">
-        <v>0.88127</v>
+        <v>0.90085000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,13 +767,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.21063999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.79320000000000002</v>
+        <v>0.70782999999999996</v>
       </c>
       <c r="D4">
-        <v>0.88807000000000003</v>
+        <v>0.71075999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,13 +781,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.33005000000000001</v>
+        <v>0.24221999999999999</v>
       </c>
       <c r="C5">
-        <v>0.90368999999999999</v>
+        <v>0.88663000000000003</v>
       </c>
       <c r="D5">
-        <v>0.92762999999999995</v>
+        <v>0.90903</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.77225999999999995</v>
+        <v>0.76722000000000001</v>
       </c>
       <c r="D6">
-        <v>0.87780999999999998</v>
+        <v>0.79607000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,13 +809,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2.1659999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.80318000000000001</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.86201000000000005</v>
+        <v>5.1709999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -594,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.34647</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.71497999999999995</v>
+        <v>0.78837999999999997</v>
       </c>
       <c r="D8">
-        <v>0.87107000000000001</v>
+        <v>0.77805000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.17655000000000001</v>
+        <v>0.10535</v>
       </c>
       <c r="C9">
-        <v>0.70321</v>
+        <v>0.74794000000000005</v>
       </c>
       <c r="D9">
-        <v>0.84448000000000001</v>
+        <v>0.73370000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -622,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.39548</v>
+        <v>0.25814999999999999</v>
       </c>
       <c r="C10">
-        <v>0.80896999999999997</v>
+        <v>0.71801000000000004</v>
       </c>
       <c r="D10">
-        <v>0.84570999999999996</v>
+        <v>0.77059999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.10351</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.79537999999999998</v>
+        <v>0.61639999999999995</v>
       </c>
       <c r="D11">
-        <v>0.86914999999999998</v>
+        <v>0.63222</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.70321</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.84448000000000001</v>
+        <v>5.1709999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.39548</v>
+        <v>0.25814999999999999</v>
       </c>
       <c r="C13">
-        <v>0.90368999999999999</v>
+        <v>0.88663000000000003</v>
       </c>
       <c r="D13">
-        <v>0.92762999999999995</v>
+        <v>0.90903</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,13 +907,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.19619166666666671</v>
+        <v>8.3502499999999993E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>0.79570249999999998</v>
+        <v>0.62359750000000003</v>
       </c>
       <c r="D14" s="2">
-        <v>0.87679166666666675</v>
+        <v>0.66593416666666672</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,244 +921,16 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.19619166666666671</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.79570249999999998</v>
+        <v>0.71801000000000004</v>
       </c>
       <c r="D15">
-        <v>0.87679166666666675</v>
+        <v>0.74748000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" activeCellId="1" sqref="D14 C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.15901999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.58559000000000005</v>
-      </c>
-      <c r="D2">
-        <v>0.80781000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0.86612</v>
-      </c>
-      <c r="D3">
-        <v>0.89788000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.70270999999999995</v>
-      </c>
-      <c r="D4">
-        <v>0.73497000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.25040000000000001</v>
-      </c>
-      <c r="C5">
-        <v>0.87870000000000004</v>
-      </c>
-      <c r="D5">
-        <v>0.90586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0.77209000000000005</v>
-      </c>
-      <c r="D6">
-        <v>0.79637999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>5.0160000000000003E-2</v>
-      </c>
-      <c r="D7">
-        <v>7.6499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0.77127999999999997</v>
-      </c>
-      <c r="D8">
-        <v>0.76885000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.11815000000000001</v>
-      </c>
-      <c r="C9">
-        <v>0.73051999999999995</v>
-      </c>
-      <c r="D9">
-        <v>0.73789000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>0.26565</v>
-      </c>
-      <c r="C10">
-        <v>0.7208</v>
-      </c>
-      <c r="D10">
-        <v>0.76929000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="C11">
-        <v>0.59014999999999995</v>
-      </c>
-      <c r="D11">
-        <v>0.64532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>5.0160000000000003E-2</v>
-      </c>
-      <c r="D12">
-        <v>7.6499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.26565</v>
-      </c>
-      <c r="C13">
-        <v>0.87870000000000004</v>
-      </c>
-      <c r="D13">
-        <v>0.90586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>8.8241666666666663E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.63308166666666665</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.67692583333333334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="C15">
-        <v>0.7208</v>
-      </c>
-      <c r="D15">
-        <v>0.76885000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/results/exp2.xlsx
+++ b/results/exp2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Fragkiadakis\Workspace\liver-baseline-registration\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4926E9A1-BB8D-47F1-9A69-F528612F0E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B6328D-8B1C-47BA-A818-89C040C013F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="4185" windowWidth="16515" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="4185" windowWidth="16515" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liver.nii.gz" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Initial dice</t>
   </si>
@@ -29,7 +29,10 @@
     <t>01 Rigid KS</t>
   </si>
   <si>
-    <t>02 B-Spline MI</t>
+    <t>02 Rigid MI</t>
+  </si>
+  <si>
+    <t>03 B-Spline MI</t>
   </si>
   <si>
     <t>JaneDoe_ANON69091</t>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" activeCellId="1" sqref="D14 C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,10 +494,11 @@
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,10 +508,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.32956999999999997</v>
@@ -516,12 +523,15 @@
         <v>0.78769</v>
       </c>
       <c r="D2">
-        <v>0.86750000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.84023000000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.88995000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2.6280000000000001E-2</v>
@@ -530,12 +540,15 @@
         <v>0.83594000000000002</v>
       </c>
       <c r="D3">
-        <v>0.88580000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.81915000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.88183999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.20105999999999999</v>
@@ -544,12 +557,15 @@
         <v>0.79144999999999999</v>
       </c>
       <c r="D4">
-        <v>0.88726000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.86709000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.91852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.32612999999999998</v>
@@ -558,12 +574,15 @@
         <v>0.90461000000000003</v>
       </c>
       <c r="D5">
-        <v>0.93025000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.91930999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.93472999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -572,12 +591,15 @@
         <v>0.78029000000000004</v>
       </c>
       <c r="D6">
-        <v>0.88214000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.88826000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.93888000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1.78E-2</v>
@@ -586,12 +608,15 @@
         <v>0.74065999999999999</v>
       </c>
       <c r="D7">
-        <v>0.85975000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.80561000000000005</v>
+      </c>
+      <c r="E7">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.33789999999999998</v>
@@ -600,12 +625,15 @@
         <v>0.72306999999999999</v>
       </c>
       <c r="D8">
-        <v>0.87766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.79747999999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.89346000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.16142999999999999</v>
@@ -614,12 +642,15 @@
         <v>0.67135</v>
       </c>
       <c r="D9">
-        <v>0.84387000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.72985</v>
+      </c>
+      <c r="E9">
+        <v>0.79706999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.38966000000000001</v>
@@ -628,12 +659,15 @@
         <v>0.79990000000000006</v>
       </c>
       <c r="D10">
-        <v>0.84028000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.85243000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.88187000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>9.8199999999999996E-2</v>
@@ -642,12 +676,15 @@
         <v>0.79254999999999998</v>
       </c>
       <c r="D11">
-        <v>0.87685000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.80288000000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.88471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -656,12 +693,15 @@
         <v>0.67135</v>
       </c>
       <c r="D12">
-        <v>0.84028000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.72985</v>
+      </c>
+      <c r="E12">
+        <v>0.79706999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0.38966000000000001</v>
@@ -670,12 +710,15 @@
         <v>0.90461000000000003</v>
       </c>
       <c r="D13">
-        <v>0.93025000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.91930999999999996</v>
+      </c>
+      <c r="E13">
+        <v>0.93888000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0.18980749999999999</v>
@@ -684,12 +727,15 @@
         <v>0.7836225</v>
       </c>
       <c r="D14" s="2">
-        <v>0.87682416666666663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.83095416666666677</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.88216499999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0.18980749999999999</v>
@@ -698,7 +744,10 @@
         <v>0.78769</v>
       </c>
       <c r="D15">
-        <v>0.87685000000000002</v>
+        <v>0.83095416666666677</v>
+      </c>
+      <c r="E15">
+        <v>0.88471</v>
       </c>
     </row>
   </sheetData>
@@ -709,10 +758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" activeCellId="1" sqref="C14 D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,10 +769,11 @@
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,10 +783,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.13816000000000001</v>
@@ -745,12 +798,15 @@
         <v>0.49797999999999998</v>
       </c>
       <c r="D2">
-        <v>0.74748000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.78173999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.87100999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -759,12 +815,15 @@
         <v>0.86614999999999998</v>
       </c>
       <c r="D3">
-        <v>0.90085000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.85331999999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.89632000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -773,12 +832,15 @@
         <v>0.70782999999999996</v>
       </c>
       <c r="D4">
-        <v>0.71075999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.72138999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.72887000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.24221999999999999</v>
@@ -787,12 +849,15 @@
         <v>0.88663000000000003</v>
       </c>
       <c r="D5">
-        <v>0.90903</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.90041000000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.93696999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -801,12 +866,15 @@
         <v>0.76722000000000001</v>
       </c>
       <c r="D6">
-        <v>0.79607000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.86004000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.93523000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -815,12 +883,15 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.1709999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.468E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.2210000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -829,12 +900,15 @@
         <v>0.78837999999999997</v>
       </c>
       <c r="D8">
-        <v>0.77805000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.57257999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.10535</v>
@@ -843,12 +917,15 @@
         <v>0.74794000000000005</v>
       </c>
       <c r="D9">
-        <v>0.73370000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.62212000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.60126000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.25814999999999999</v>
@@ -857,12 +934,15 @@
         <v>0.71801000000000004</v>
       </c>
       <c r="D10">
-        <v>0.77059999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.79952999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.82110000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -871,12 +951,15 @@
         <v>0.61639999999999995</v>
       </c>
       <c r="D11">
-        <v>0.63222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.64120999999999995</v>
+      </c>
+      <c r="E11">
+        <v>0.63976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -885,12 +968,15 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.1709999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.468E-2</v>
+      </c>
+      <c r="E12">
+        <v>2.2210000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0.25814999999999999</v>
@@ -899,12 +985,15 @@
         <v>0.88663000000000003</v>
       </c>
       <c r="D13">
-        <v>0.90903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.90041000000000004</v>
+      </c>
+      <c r="E13">
+        <v>0.93696999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>8.3502499999999993E-2</v>
@@ -913,12 +1002,15 @@
         <v>0.62359750000000003</v>
       </c>
       <c r="D14" s="2">
-        <v>0.66593416666666672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.64976916666666662</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.6653741666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -927,7 +1019,10 @@
         <v>0.71801000000000004</v>
       </c>
       <c r="D15">
-        <v>0.74748000000000003</v>
+        <v>0.72138999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.72887000000000002</v>
       </c>
     </row>
   </sheetData>
